--- a/RubricaPjBL_Equipe.xlsx
+++ b/RubricaPjBL_Equipe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuário\Desktop\Programação orientada a objetos\Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TI\Repositórios\!Github\FlixFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A8800-CAA9-4A49-BE4E-BCBCA682875B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57148718-47F7-49DC-A24E-723B414C6983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fundamentos" sheetId="7" r:id="rId1"/>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -129,40 +129,34 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.5"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,8 +169,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4E4E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -200,13 +206,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -216,12 +224,72 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -233,8 +301,23 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -242,69 +325,174 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -347,6 +535,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE4E4E4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -684,135 +877,138 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="117.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="3" max="3" width="95.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.94921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:4" ht="14" thickBot="1" x14ac:dyDescent="0.8"/>
+    <row r="2" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7">
+      <c r="C2" s="5">
         <v>0.35</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="3" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B11" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="2:4" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="B13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",C1)))</formula>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -824,88 +1020,96 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="117.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="3" max="3" width="95.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.94921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:4" ht="14" thickBot="1" x14ac:dyDescent="0.8"/>
+    <row r="2" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3">
+      <c r="C2" s="26">
         <v>0.25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="3" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="7">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B4" s="10">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B5" s="7">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B6" s="10">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="2:4" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="9" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="10" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="11" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="12" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="13" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="14" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="15" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",C1)))</formula>
+  <conditionalFormatting sqref="D2:D1048576">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -917,91 +1121,99 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="117.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="3" max="3" width="95.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.94921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="2:4" ht="14" thickBot="1" x14ac:dyDescent="0.8"/>
+    <row r="2" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7">
+      <c r="C2" s="5">
         <v>0.15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="3" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B5" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B6" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="2:4" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="10" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="11" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="12" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="13" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="14" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",C1)))</formula>
+  <conditionalFormatting sqref="D2:D1048576">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1013,76 +1225,86 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="117.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="3" max="3" width="95.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.94921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="2:4" ht="14" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7">
+      <c r="C2" s="5">
         <v>0.25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="3" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B5" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="2:4" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="B6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="8" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="9" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="10" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="11" spans="2:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.65"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C5">
+  <conditionalFormatting sqref="D3:D6">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",C2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("x",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
